--- a/Entrega_1/MODELOS/Registro modelos.xlsx
+++ b/Entrega_1/MODELOS/Registro modelos.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="15150" windowHeight="9780"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
   <si>
     <t>KPIs</t>
   </si>
@@ -68,6 +84,9 @@
   </si>
   <si>
     <t>reducido</t>
+  </si>
+  <si>
+    <t>9-NN</t>
   </si>
   <si>
     <t>mod4</t>
@@ -106,32 +125,194 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -157,46 +338,733 @@
         <bgColor rgb="FFD5A6BD"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -386,35 +1254,41 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.38"/>
-    <col customWidth="1" min="2" max="3" width="10.88"/>
-    <col customWidth="1" min="4" max="4" width="10.38"/>
-    <col customWidth="1" min="5" max="7" width="8.5"/>
-    <col customWidth="1" min="8" max="8" width="15.88"/>
-    <col customWidth="1" min="9" max="9" width="9.38"/>
-    <col customWidth="1" min="10" max="10" width="8.0"/>
+    <col min="1" max="1" width="7.38095238095238" customWidth="1"/>
+    <col min="2" max="3" width="10.8761904761905" customWidth="1"/>
+    <col min="4" max="4" width="10.3809523809524" customWidth="1"/>
+    <col min="5" max="5" width="14.8571428571429" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="13.2857142857143" customWidth="1"/>
+    <col min="8" max="8" width="15.8761904761905" customWidth="1"/>
+    <col min="9" max="9" width="13.7142857142857" customWidth="1"/>
+    <col min="10" max="10" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customHeight="1" spans="5:6">
       <c r="E1" s="1"/>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -446,7 +1320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -460,7 +1334,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
@@ -474,7 +1348,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -485,54 +1359,73 @@
         <v>13</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>0.1886</v>
+      </c>
+      <c r="F5">
+        <v>0.8114</v>
+      </c>
+      <c r="G5">
+        <v>0.5874</v>
+      </c>
+      <c r="H5">
+        <v>0.3011</v>
+      </c>
+      <c r="I5">
+        <v>0.9447</v>
+      </c>
+      <c r="J5">
+        <f>2*G5*H5/(G5+H5)</f>
+        <v>0.398122993809792</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customHeight="1" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" customHeight="1" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" customHeight="1" spans="1:4">
       <c r="A9" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>12</v>
@@ -541,12 +1434,12 @@
         <v>13</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" customHeight="1" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>16</v>
@@ -555,12 +1448,12 @@
         <v>13</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" customHeight="1" spans="1:4">
       <c r="A11" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>18</v>
@@ -569,55 +1462,56 @@
         <v>13</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" customHeight="1" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" customHeight="1" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" customHeight="1" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="F1:J1"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Entrega_1/MODELOS/Registro modelos.xlsx
+++ b/Entrega_1/MODELOS/Registro modelos.xlsx
@@ -5,45 +5,28 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c7f805dacea241c7/Desktop/melissa/github/Mineria/Entrega_1/MODELOS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubarcelona-my.sharepoint.com/personal/wyeyexxx22_alumnes_ub_edu/Documents/Escritorio/Mineria/Entrega_1/MODELOS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="11_8402FAF484F4B0CA40E89AF5DDA406B1A0A010F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1119AFBA-6986-4F2C-8581-FC683CE200BD}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="11_8402FAF484F4B0CA40E89AF5DDA406B1A0A010F3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AACF0FB7-10A4-4965-BB3B-148E656FB764}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Imputado" sheetId="1" r:id="rId1"/>
+    <sheet name="Reducido" sheetId="3" r:id="rId2"/>
+    <sheet name="Reducido_plus" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
-  <si>
-    <t>KPIs</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="29">
   <si>
     <t>Nombre</t>
   </si>
   <si>
-    <t>Data</t>
-  </si>
-  <si>
     <t>Balanceado?</t>
   </si>
   <si>
@@ -74,24 +57,15 @@
     <t>No</t>
   </si>
   <si>
-    <t>k-NN</t>
-  </si>
-  <si>
     <t>mod2</t>
   </si>
   <si>
     <t>mod3</t>
   </si>
   <si>
-    <t>9-NN</t>
-  </si>
-  <si>
     <t>mod4</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>mod5</t>
   </si>
   <si>
@@ -107,41 +81,41 @@
     <t>mod8</t>
   </si>
   <si>
-    <t>mod9</t>
-  </si>
-  <si>
-    <t>mod10</t>
-  </si>
-  <si>
-    <t>mod11</t>
-  </si>
-  <si>
-    <t>mod12</t>
-  </si>
-  <si>
-    <t>train imputado</t>
-  </si>
-  <si>
-    <t>test imputado</t>
-  </si>
-  <si>
-    <t>train transformado</t>
-  </si>
-  <si>
-    <t>test transformado</t>
-  </si>
-  <si>
-    <t>train reducido</t>
-  </si>
-  <si>
-    <t>test reducido</t>
+    <t>mod1 train</t>
+  </si>
+  <si>
+    <t>mod2 train</t>
+  </si>
+  <si>
+    <t>mod1 test</t>
+  </si>
+  <si>
+    <t>mod2 test</t>
+  </si>
+  <si>
+    <t>K-NN</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>recordar de substituir en la columna balanceo el metodo aplicado</t>
+  </si>
+  <si>
+    <t>Para KNN APLICAR FAMD PARA TENER AL MENOS EL 80% DE VARIABILIDAD</t>
+  </si>
+  <si>
+    <t>Aplicar CROSS-VALIDATION</t>
+  </si>
+  <si>
+    <t>no balanceo i FAMD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -154,20 +128,20 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -176,19 +150,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEAD1DC"/>
-        <bgColor rgb="FFEAD1DC"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -214,6 +189,18 @@
         <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -227,29 +214,93 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="31">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -345,6 +396,108 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD5A6BD"/>
+          <bgColor rgb="FFD5A6BD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD5A6BD"/>
+          <bgColor rgb="FFD5A6BD"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -539,25 +692,25 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="21"/>
-      <tableStyleElement type="headerRow" dxfId="20"/>
-      <tableStyleElement type="totalRow" dxfId="19"/>
-      <tableStyleElement type="firstColumn" dxfId="18"/>
-      <tableStyleElement type="lastColumn" dxfId="17"/>
-      <tableStyleElement type="firstRowStripe" dxfId="16"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="15"/>
+      <tableStyleElement type="wholeTable" dxfId="30"/>
+      <tableStyleElement type="headerRow" dxfId="29"/>
+      <tableStyleElement type="totalRow" dxfId="28"/>
+      <tableStyleElement type="firstColumn" dxfId="27"/>
+      <tableStyleElement type="lastColumn" dxfId="26"/>
+      <tableStyleElement type="firstRowStripe" dxfId="25"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="24"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="14"/>
-      <tableStyleElement type="totalRow" dxfId="13"/>
-      <tableStyleElement type="firstRowStripe" dxfId="12"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="11"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="10"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="9"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="8"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="7"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="6"/>
-      <tableStyleElement type="pageFieldValues" dxfId="5"/>
+      <tableStyleElement type="headerRow" dxfId="23"/>
+      <tableStyleElement type="totalRow" dxfId="22"/>
+      <tableStyleElement type="firstRowStripe" dxfId="21"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="20"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="19"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="18"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="17"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="16"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="15"/>
+      <tableStyleElement type="pageFieldValues" dxfId="14"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -572,19 +725,54 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EFDA86D-501E-404B-8DBA-7DFCCFB7B18B}" name="Tabla1" displayName="Tabla1" ref="A2:J26" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A2:J26" xr:uid="{8EFDA86D-501E-404B-8DBA-7DFCCFB7B18B}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{BA2C8BC3-E728-4522-8CF4-DA5E48886F81}" name="Nombre" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{BF095AA0-578B-424B-B440-3C58B9A1CCC0}" name="Data" dataDxfId="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EFDA86D-501E-404B-8DBA-7DFCCFB7B18B}" name="Tabla1" displayName="Tabla1" ref="A1:I5" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:I5" xr:uid="{8EFDA86D-501E-404B-8DBA-7DFCCFB7B18B}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{BA2C8BC3-E728-4522-8CF4-DA5E48886F81}" name="Nombre" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{13E4100D-EF07-4CD5-B02A-1C8BD14EDF85}" name="Balanceado?" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{45A5545E-2014-4EB1-95CE-39E67A937A80}" name="Método" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{3993F575-D1ED-4D3F-959D-B7CD919F1C7A}" name="Error rate"/>
+    <tableColumn id="5" xr3:uid="{3993F575-D1ED-4D3F-959D-B7CD919F1C7A}" name="Error rate" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{BD0FB137-DF75-4BA6-B8C9-B09A13B0CA4D}" name="Accuracy"/>
     <tableColumn id="7" xr3:uid="{F9C28925-6195-41BF-94DB-E1AADCB9EF4D}" name="Precision"/>
     <tableColumn id="8" xr3:uid="{88ED5B3D-8CED-45D4-A01D-9D9BC46288FC}" name="Recall (Sensitivity)"/>
     <tableColumn id="9" xr3:uid="{1D4B9931-E513-4F4E-AFAA-23EDC029CDF2}" name="Specificity"/>
     <tableColumn id="10" xr3:uid="{B61CF27E-726C-4B2B-AA7D-463413CB1C90}" name="F1-score"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStylePreset3_Accent1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{165D14E5-CCC0-4C47-880C-5B52D80C29DE}" name="Tabla13" displayName="Tabla13" ref="A1:I17" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="A1:I17" xr:uid="{165D14E5-CCC0-4C47-880C-5B52D80C29DE}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{CFE36DC7-00F6-4DED-B592-D6FBED867DFA}" name="Nombre" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{775DA5AD-E358-4517-9147-A40D193A5259}" name="Balanceado?" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{99784FB2-9B30-4AFF-9364-8C15FFF91982}" name="Método" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{45A29614-57E0-4876-856D-02F3A0F8724D}" name="Error rate"/>
+    <tableColumn id="6" xr3:uid="{F2CA3B15-C33A-4833-B5DA-F20CFCCCC1B3}" name="Accuracy"/>
+    <tableColumn id="7" xr3:uid="{91ACF221-8C4C-4D3F-864C-7836AA8F9827}" name="Precision"/>
+    <tableColumn id="8" xr3:uid="{DB36A0C4-5C6D-4AF3-A68E-F0C8204D15C2}" name="Recall (Sensitivity)"/>
+    <tableColumn id="9" xr3:uid="{AC21EBDF-63B3-4AE9-9158-A42D2F67767D}" name="Specificity"/>
+    <tableColumn id="10" xr3:uid="{0FACF87B-A5CB-428D-87E9-2308DE99D989}" name="F1-score"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStylePreset3_Accent1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F97FD072-9802-4812-B4EA-4145EC6BBE4F}" name="Tabla14" displayName="Tabla14" ref="A1:I17" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A1:I17" xr:uid="{F97FD072-9802-4812-B4EA-4145EC6BBE4F}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{795199E7-C3DF-462C-B2F7-3F0F6AAC9868}" name="Nombre" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{932F40CE-D85F-44BC-9C80-99BD1269A939}" name="Balanceado?" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{1CA762F1-3AC5-4AE5-8B38-170675E2BCEB}" name="Método" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{B96DB787-0DC6-4176-AD1B-48880CD4E605}" name="Error rate" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{EF61DC4B-380D-489F-B866-C39D6B5F93E3}" name="Accuracy"/>
+    <tableColumn id="6" xr3:uid="{EB6D4ED1-04BB-45CD-B700-DB83B249EAE6}" name="Precision"/>
+    <tableColumn id="7" xr3:uid="{6364D483-8DE8-4190-B7D2-7ABEF3F33E09}" name="Recall (Sensitivity)"/>
+    <tableColumn id="8" xr3:uid="{01ABA9C3-F381-439E-8BE6-31AE1CEE48C8}" name="Specificity"/>
+    <tableColumn id="9" xr3:uid="{666F3487-2261-403B-9279-43BB1809A3CE}" name="F1-score"/>
   </tableColumns>
   <tableStyleInfo name="TableStylePreset3_Accent1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -791,393 +979,567 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="19.88671875" customWidth="1"/>
+    <col min="9" max="9" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1">
-      <c r="E1" s="1"/>
-      <c r="F1" s="5" t="s">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7">
-        <v>0.18859999999999999</v>
-      </c>
-      <c r="F7">
-        <v>0.81140000000000001</v>
-      </c>
-      <c r="G7">
-        <v>0.58740000000000003</v>
-      </c>
-      <c r="H7">
-        <v>0.30109999999999998</v>
-      </c>
-      <c r="I7">
-        <v>0.94469999999999998</v>
-      </c>
-      <c r="J7">
-        <f>2*G7*H7/(G7+H7)</f>
-        <v>0.39812299380979177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A9" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="D2" s="12">
         <f>1-Tabla1[[#This Row],[Accuracy]]</f>
         <v>0.20109999999999995</v>
       </c>
-      <c r="F15" s="9">
+      <c r="E2" s="6">
         <v>0.79890000000000005</v>
       </c>
-      <c r="G15" s="10">
+      <c r="F2" s="7">
         <v>0.81189999999999996</v>
       </c>
-      <c r="H15" s="10">
+      <c r="G2" s="7">
         <v>0.97140000000000004</v>
       </c>
-      <c r="I15" s="10">
+      <c r="H2" s="7">
         <v>0.1389</v>
       </c>
-      <c r="J15" s="10">
+      <c r="I2" s="7">
         <v>0.88449999999999995</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="10">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="13">
         <v>0.20760000000000001</v>
       </c>
-      <c r="F16" s="10">
+      <c r="E3" s="7">
         <v>0.7923</v>
       </c>
-      <c r="G16" s="10">
+      <c r="F3" s="7">
         <v>0.81110000000000004</v>
       </c>
-      <c r="H16" s="10">
+      <c r="G3" s="7">
         <v>0.96209999999999996</v>
       </c>
-      <c r="I16" s="10">
+      <c r="H3" s="7">
         <v>0.14249999999999999</v>
       </c>
-      <c r="J16" s="10">
+      <c r="I3" s="7">
         <v>0.88019999999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="4" t="s">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="14"/>
+      <c r="J4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1">
-      <c r="B26" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="14"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1">
+      <c r="G7" s="8"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75" customHeight="1">
+      <c r="G9" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F1:J1"/>
-  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534942B7-6F35-4E53-92D9-5B9A7CB3B70C}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="D19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="D20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="D21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D960D2-C80F-4DF4-8F15-53FC047D8DBB}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="D19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="D20" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="D21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Entrega_1/MODELOS/Registro modelos.xlsx
+++ b/Entrega_1/MODELOS/Registro modelos.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="78">
   <si>
     <t>Nombre</t>
   </si>
@@ -255,7 +255,10 @@
     <t>0.4383562</t>
   </si>
   <si>
-    <t>KNN</t>
+    <t>23NN</t>
+  </si>
+  <si>
+    <t>22NN</t>
   </si>
   <si>
     <t>Error rate</t>
@@ -1499,8 +1502,8 @@
   <sheetPr/>
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -2087,7 +2090,7 @@
         <v>9</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D28" s="6">
         <v>0.797619</v>
@@ -2125,7 +2128,7 @@
         <v>64</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D30" s="6">
         <v>0.672381</v>
@@ -2163,7 +2166,7 @@
         <v>33</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D32" s="6">
         <v>0.6319048</v>
@@ -2231,7 +2234,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>

--- a/Entrega_1/MODELOS/Registro modelos.xlsx
+++ b/Entrega_1/MODELOS/Registro modelos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="12000" windowHeight="12255"/>
+    <workbookView windowWidth="14400" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Naive_Bayes" sheetId="4" r:id="rId1"/>
@@ -958,7 +958,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -967,6 +967,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1502,14 +1505,15 @@
   <sheetPr/>
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
   <cols>
-    <col min="6" max="6" width="11.7142857142857"/>
-    <col min="8" max="8" width="11.7142857142857"/>
+    <col min="4" max="5" width="12"/>
+    <col min="6" max="6" width="13.2857142857143"/>
+    <col min="7" max="8" width="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1853,7 +1857,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:9">
       <c r="A15" s="6"/>
     </row>
     <row r="16" spans="1:9">
@@ -1864,22 +1868,22 @@
       <c r="C16" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="6">
-        <v>0.7938095</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0.5652174</v>
-      </c>
-      <c r="F16" s="6">
-        <v>0.02981651</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0.9939904</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0.05664488</v>
-      </c>
-      <c r="I16" s="6" t="s">
+      <c r="D16" s="7">
+        <v>0.7885714</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.445949</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.07568807</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.9753606</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0.1249118</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1887,12 +1891,12 @@
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="6"/>
@@ -1902,22 +1906,22 @@
       <c r="C18" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="6">
-        <v>0.657619</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0.3110814</v>
-      </c>
-      <c r="F18" s="6">
-        <v>0.53440367</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0.6899038</v>
-      </c>
-      <c r="H18" s="6">
-        <v>0.39324895</v>
-      </c>
-      <c r="I18" s="6" t="s">
+      <c r="D18" s="7">
+        <v>0.6285714</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0.2897311</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.54357798</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.6508413</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0.3779904</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1925,12 +1929,12 @@
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="6"/>
@@ -1940,22 +1944,22 @@
       <c r="C20" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="6">
-        <v>0.6119048</v>
-      </c>
-      <c r="E20" s="6">
-        <v>0.2829324</v>
-      </c>
-      <c r="F20" s="6">
-        <v>0.56651376</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0.6237981</v>
-      </c>
-      <c r="H20" s="6">
-        <v>0.37738732</v>
-      </c>
-      <c r="I20" s="6" t="s">
+      <c r="D20" s="7">
+        <v>0.6009524</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0.2756696</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.56651736</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0.609976</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.3708709</v>
+      </c>
+      <c r="I20" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1963,12 +1967,12 @@
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="6"/>
@@ -1978,22 +1982,22 @@
       <c r="C22" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="6">
-        <v>0.807601</v>
-      </c>
-      <c r="E22" s="6">
-        <v>0.6595745</v>
-      </c>
-      <c r="F22" s="6">
-        <v>0.26666667</v>
-      </c>
-      <c r="G22" s="6">
-        <v>0.9609756</v>
-      </c>
-      <c r="H22" s="6">
-        <v>0.3797856</v>
-      </c>
-      <c r="I22" s="6" t="s">
+      <c r="D22" s="7">
+        <v>0.806508</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.6330275</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.29677419</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0.9512195</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0.4040996</v>
+      </c>
+      <c r="I22" s="7" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2001,12 +2005,12 @@
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="6"/>
@@ -2016,22 +2020,22 @@
       <c r="C24" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D24" s="6">
-        <v>0.6793349</v>
-      </c>
-      <c r="E24" s="6">
-        <v>0.3725728</v>
-      </c>
-      <c r="F24" s="6">
-        <v>0.66021505</v>
-      </c>
-      <c r="G24" s="6">
-        <v>0.6847561</v>
-      </c>
-      <c r="H24" s="6">
-        <v>0.47633825</v>
-      </c>
-      <c r="I24" s="6" t="s">
+      <c r="D24" s="7">
+        <v>0.6774347</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0.3695122</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.6516129</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0.6847651</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0.4715953</v>
+      </c>
+      <c r="I24" s="7" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2039,12 +2043,12 @@
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="6"/>
@@ -2054,22 +2058,22 @@
       <c r="C26" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="6">
-        <v>0.663658</v>
-      </c>
-      <c r="E26" s="6">
-        <v>0.3601841</v>
-      </c>
-      <c r="F26" s="6">
+      <c r="D26" s="7">
+        <v>0.6475059</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0.3466224</v>
+      </c>
+      <c r="F26" s="7">
         <v>0.67311828</v>
       </c>
-      <c r="G26" s="6">
-        <v>0.6609756</v>
-      </c>
-      <c r="H26" s="6">
-        <v>0.46926537</v>
-      </c>
-      <c r="I26" s="6" t="s">
+      <c r="G26" s="7">
+        <v>0.6404239</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0.4576023</v>
+      </c>
+      <c r="I26" s="7" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2077,12 +2081,12 @@
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="6"/>
@@ -2092,22 +2096,22 @@
       <c r="C28" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="6">
-        <v>0.797619</v>
-      </c>
-      <c r="E28" s="6">
-        <v>0.6341463</v>
-      </c>
-      <c r="F28" s="6">
-        <v>0.17030568</v>
-      </c>
-      <c r="G28" s="6">
-        <v>0.9725944</v>
-      </c>
-      <c r="H28" s="6">
-        <v>0.26850258</v>
-      </c>
-      <c r="I28" s="6" t="s">
+      <c r="D28" s="7">
+        <v>0.8009524</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0.21830461</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0.9634592</v>
+      </c>
+      <c r="H28" s="7">
+        <v>0.3236246</v>
+      </c>
+      <c r="I28" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2115,12 +2119,12 @@
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="6"/>
@@ -2130,22 +2134,22 @@
       <c r="C30" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="6">
-        <v>0.672381</v>
-      </c>
-      <c r="E30" s="6">
-        <v>0.3621103</v>
-      </c>
-      <c r="F30" s="6">
-        <v>0.65938865</v>
-      </c>
-      <c r="G30" s="6">
-        <v>0.6760049</v>
-      </c>
-      <c r="H30" s="6">
-        <v>0.46749226</v>
-      </c>
-      <c r="I30" s="6" t="s">
+      <c r="D30" s="7">
+        <v>0.6657143</v>
+      </c>
+      <c r="E30" s="7">
+        <v>0.3533654</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0.6419214</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0.6723508</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0.455814</v>
+      </c>
+      <c r="I30" s="7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2153,12 +2157,12 @@
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="6"/>
@@ -2168,40 +2172,40 @@
       <c r="C32" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="6">
-        <v>0.6319048</v>
-      </c>
-      <c r="E32" s="6">
-        <v>0.3267327</v>
-      </c>
-      <c r="F32" s="6">
-        <v>0.64847162</v>
-      </c>
-      <c r="G32" s="6">
-        <v>0.6272838</v>
-      </c>
-      <c r="H32" s="6">
-        <v>0.43452816</v>
-      </c>
-      <c r="I32" s="6" t="s">
+      <c r="D32" s="7">
+        <v>0.612381</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0.3098291</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0.63318777</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0.6065773</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0.4160689</v>
+      </c>
+      <c r="I32" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="4:8">
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="8"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="8"/>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="8"/>
+    <row r="33" spans="1:8">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="9"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="9"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Entrega_1/MODELOS/Registro modelos.xlsx
+++ b/Entrega_1/MODELOS/Registro modelos.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="77">
   <si>
     <t>Nombre</t>
   </si>
@@ -255,10 +255,7 @@
     <t>0.4383562</t>
   </si>
   <si>
-    <t>23NN</t>
-  </si>
-  <si>
-    <t>22NN</t>
+    <t>11NN</t>
   </si>
   <si>
     <t>Error rate</t>
@@ -1506,7 +1503,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -2094,7 +2091,7 @@
         <v>9</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D28" s="7">
         <v>0.8009524</v>
@@ -2132,7 +2129,7 @@
         <v>64</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D30" s="7">
         <v>0.6657143</v>
@@ -2170,7 +2167,7 @@
         <v>33</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D32" s="7">
         <v>0.612381</v>
@@ -2238,7 +2235,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>

--- a/Entrega_1/MODELOS/Registro modelos.xlsx
+++ b/Entrega_1/MODELOS/Registro modelos.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12255"/>
+    <workbookView windowWidth="14400" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Naive_Bayes" sheetId="4" r:id="rId1"/>
@@ -255,10 +255,10 @@
     <t>0.4383562</t>
   </si>
   <si>
-    <t>11NN</t>
-  </si>
-  <si>
     <t>Error rate</t>
+  </si>
+  <si>
+    <t>9NN</t>
   </si>
 </sst>
 </file>
@@ -271,7 +271,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -296,12 +296,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Console"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Lucida Console"/>
       <charset val="134"/>
@@ -810,152 +804,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -965,11 +959,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1502,8 +1492,8 @@
   <sheetPr/>
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -1857,352 +1847,14 @@
     <row r="15" spans="1:9">
       <c r="A15" s="6"/>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0.7885714</v>
-      </c>
-      <c r="E16" s="7">
-        <v>0.445949</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0.07568807</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0.9753606</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0.1249118</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" s="7">
-        <v>0.6285714</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0.2897311</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0.54357798</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0.6508413</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0.3779904</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0.6009524</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0.2756696</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0.56651736</v>
-      </c>
-      <c r="G20" s="7">
-        <v>0.609976</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0.3708709</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0.806508</v>
-      </c>
-      <c r="E22" s="7">
-        <v>0.6330275</v>
-      </c>
-      <c r="F22" s="7">
-        <v>0.29677419</v>
-      </c>
-      <c r="G22" s="7">
-        <v>0.9512195</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0.4040996</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0.6774347</v>
-      </c>
-      <c r="E24" s="7">
-        <v>0.3695122</v>
-      </c>
-      <c r="F24" s="7">
-        <v>0.6516129</v>
-      </c>
-      <c r="G24" s="7">
-        <v>0.6847651</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0.4715953</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0.6475059</v>
-      </c>
-      <c r="E26" s="7">
-        <v>0.3466224</v>
-      </c>
-      <c r="F26" s="7">
-        <v>0.67311828</v>
-      </c>
-      <c r="G26" s="7">
-        <v>0.6404239</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0.4576023</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="7">
-        <v>0.8009524</v>
-      </c>
-      <c r="E28" s="7">
-        <v>0.625</v>
-      </c>
-      <c r="F28" s="7">
-        <v>0.21830461</v>
-      </c>
-      <c r="G28" s="7">
-        <v>0.9634592</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0.3236246</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="7">
-        <v>0.6657143</v>
-      </c>
-      <c r="E30" s="7">
-        <v>0.3533654</v>
-      </c>
-      <c r="F30" s="7">
-        <v>0.6419214</v>
-      </c>
-      <c r="G30" s="7">
-        <v>0.6723508</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0.455814</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="7">
-        <v>0.612381</v>
-      </c>
-      <c r="E32" s="7">
-        <v>0.3098291</v>
-      </c>
-      <c r="F32" s="7">
-        <v>0.63318777</v>
-      </c>
-      <c r="G32" s="7">
-        <v>0.6065773</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0.4160689</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="9"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="9"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="9"/>
+    <row r="36" spans="1:1">
+      <c r="A36" s="7"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="7"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2216,13 +1868,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="4" max="4" width="11.7142857142857"/>
+    <col min="5" max="5" width="13.2857142857143"/>
+    <col min="6" max="6" width="12"/>
+    <col min="7" max="7" width="12.8571428571429" customWidth="1"/>
+    <col min="8" max="9" width="12"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
@@ -2235,7 +1894,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -2254,6 +1913,276 @@
       </c>
       <c r="J1" s="3" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2">
+        <f>1-E2</f>
+        <v>0.2109524</v>
+      </c>
+      <c r="E2">
+        <v>0.7890476</v>
+      </c>
+      <c r="F2">
+        <v>0.4597701</v>
+      </c>
+      <c r="G2">
+        <v>0.09174312</v>
+      </c>
+      <c r="H2">
+        <v>0.9717548</v>
+      </c>
+      <c r="I2">
+        <v>0.1529637</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D3:D18" si="0">1-E4</f>
+        <v>0.3733333</v>
+      </c>
+      <c r="E4">
+        <v>0.6266667</v>
+      </c>
+      <c r="F4">
+        <v>0.2883212</v>
+      </c>
+      <c r="G4">
+        <v>0.5435798</v>
+      </c>
+      <c r="H4">
+        <v>0.6484375</v>
+      </c>
+      <c r="I4">
+        <v>0.3767886</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.4099048</v>
+      </c>
+      <c r="E6">
+        <v>0.5900952</v>
+      </c>
+      <c r="F6">
+        <v>0.2801724</v>
+      </c>
+      <c r="G6">
+        <v>0.59633028</v>
+      </c>
+      <c r="H6">
+        <v>0.5985577</v>
+      </c>
+      <c r="I6">
+        <v>0.3812317</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.1957245</v>
+      </c>
+      <c r="E8">
+        <v>0.8042755</v>
+      </c>
+      <c r="F8">
+        <v>0.6147186</v>
+      </c>
+      <c r="G8">
+        <v>0.50373624</v>
+      </c>
+      <c r="H8">
+        <v>0.9475371</v>
+      </c>
+      <c r="I8">
+        <v>0.480064</v>
+      </c>
+      <c r="J8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.3268409</v>
+      </c>
+      <c r="E10">
+        <v>0.6731591</v>
+      </c>
+      <c r="F10">
+        <v>0.3671037</v>
+      </c>
+      <c r="G10">
+        <v>0.66236559</v>
+      </c>
+      <c r="H10">
+        <v>0.6762915</v>
+      </c>
+      <c r="I10">
+        <v>0.4723926</v>
+      </c>
+      <c r="J10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0.3653027</v>
+      </c>
+      <c r="E12">
+        <v>0.6346973</v>
+      </c>
+      <c r="F12">
+        <v>0.3531104</v>
+      </c>
+      <c r="G12">
+        <v>0.6643161</v>
+      </c>
+      <c r="H12">
+        <v>0.6626129</v>
+      </c>
+      <c r="I12">
+        <v>0.445566</v>
+      </c>
+      <c r="J12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>0.2042857</v>
+      </c>
+      <c r="E14">
+        <v>0.7957143</v>
+      </c>
+      <c r="F14">
+        <v>0.5810506</v>
+      </c>
+      <c r="G14">
+        <v>0.22076424</v>
+      </c>
+      <c r="H14">
+        <v>0.954324</v>
+      </c>
+      <c r="I14">
+        <v>0.3263506</v>
+      </c>
+      <c r="J14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>0.3452381</v>
+      </c>
+      <c r="E16">
+        <v>0.6547619</v>
+      </c>
+      <c r="F16">
+        <v>0.3392256</v>
+      </c>
+      <c r="G16">
+        <v>0.685036</v>
+      </c>
+      <c r="H16">
+        <v>0.6622606</v>
+      </c>
+      <c r="I16">
+        <v>0.4418784</v>
+      </c>
+      <c r="J16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.40404762</v>
+      </c>
+      <c r="E18">
+        <v>0.59595238</v>
+      </c>
+      <c r="F18">
+        <v>0.3015544</v>
+      </c>
+      <c r="G18">
+        <v>0.63537118</v>
+      </c>
+      <c r="H18">
+        <v>0.588525</v>
+      </c>
+      <c r="I18">
+        <v>0.4089951</v>
+      </c>
+      <c r="J18" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
